--- a/biology/Zoologie/Fadet_maghrébin/Fadet_maghrébin.xlsx
+++ b/biology/Zoologie/Fadet_maghrébin/Fadet_maghrébin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fadet_maghr%C3%A9bin</t>
+          <t>Fadet_maghrébin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coenonympha arcanioides
 Le Fadet maghrébin (Coenonympha arcanioides) est un papillon appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre  Coenonympha.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fadet_maghr%C3%A9bin</t>
+          <t>Fadet_maghrébin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,49 +524,122 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Coenonympha arcanioides a été nommé par Alexandre Pierreten 1837.
-Synonymes :Satyrus arcanioides Pierret, 1837[1].
-Formes et variétés
-Coenonympha arcanioides f. major ; Seitz, 1908; présent en Algérie et au Maroc.
+Synonymes :Satyrus arcanioides Pierret, 1837.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fadet_maghrébin</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_maghr%C3%A9bin</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Formes et variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Coenonympha arcanioides f. major ; Seitz, 1908; présent en Algérie et au Maroc.
 Coenonympha arcanioides gen. aest. holli ; Oberthür, 1910;  présent en Algérie.
 Coenonympha arcanioides ab. biocellata ;  Oberthür, 1910;  présent en Algérie.
 Coenonympha arcanioides f. pluriocellata ; Stetter-Stättermayer, 1933;  présent à Bône en Algérie.
 Coenonympha arcanioides f. inocellata ; Stetter-Stättermayer, 1933; ; présent à Bône en Algérie.
 Coenonympha arcanioides f. obliterata ; Stetter-Stättermayer, 1933; ; présent à Bône en Algérie.
-Coenonympha arcanioides f. nigro-ocellata ; Stetter-Stättermayer, 1933; présent à Bône en Algérie[1].
-Noms vernaculaires
-Le Fadet maghrébin se nomme Moroccan Pearly Heath en anglais[1].
+Coenonympha arcanioides f. nigro-ocellata ; Stetter-Stättermayer, 1933; présent à Bône en Algérie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fadet_maghrébin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_maghr%C3%A9bin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Fadet maghrébin se nomme Moroccan Pearly Heath en anglais.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Fadet_maghr%C3%A9bin</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fadet_maghr%C3%A9bin</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fadet_maghrébin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_maghr%C3%A9bin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Fadet maghrébin  présente un dessus de couleur orange bordé de marron clair pour les antérieures avec un ocelle marron aveugle à l'apex, alors que les postérieures sont de couleur marron clair  .
 Le revers des antérieures est semblable, orange avec un gros ocelle noir pupillé de blanc cerné de jaune orangé à l'apex. Les postérieures ont une bande postmédiane blanc crème irrégulière caractéristique doublée d'une ligne d'ocelles vestigiaux.
@@ -562,70 +647,147 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Fadet_maghr%C3%A9bin</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fadet_maghr%C3%A9bin</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fadet_maghrébin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_maghr%C3%A9bin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en plusieurs générations, d'avril à septembre[2].
-Plantes hôtes
-Les plantes hôtes de sa chenille seraient diverses graminées.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en plusieurs générations, d'avril à septembre.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Fadet_maghr%C3%A9bin</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fadet_maghr%C3%A9bin</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fadet_maghrébin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_maghr%C3%A9bin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille seraient diverses graminées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fadet_maghrébin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_maghr%C3%A9bin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il est présent en Afrique du Nord au Maroc, en Algérie et en Tunisie[1],[2].
-Biotope
-Il réside dans des lieux broussailleux.
-Protection</t>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Afrique du Nord au Maroc, en Algérie et en Tunisie,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fadet_maghrébin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_maghr%C3%A9bin</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans des lieux broussailleux.
+</t>
         </is>
       </c>
     </row>
